--- a/UnderGraduate/bin/工作簿1.xlsx
+++ b/UnderGraduate/bin/工作簿1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Control\UnderGraduate\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{042EC012-6F2A-4315-9D77-09AEA8B902CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9894037-5B8F-492A-A473-624CC41FABFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5676" yWindow="4572" windowWidth="17280" windowHeight="8964" xr2:uid="{C70A3AC5-F03D-44BB-8B4D-04BF240DBD10}"/>
+    <workbookView xWindow="5676" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{C70A3AC5-F03D-44BB-8B4D-04BF240DBD10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,51 +386,51 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-9.1999999999999993</v>
+        <v>-8.5192428571428565</v>
       </c>
       <c r="B1">
-        <v>-195</v>
+        <v>-196</v>
       </c>
       <c r="E1">
-        <f>A1*140+1093</f>
-        <v>-195</v>
+        <f>$C$3*A1+$D$3</f>
+        <v>-196</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-7.7</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <f>A2*140+1093</f>
-        <v>15</v>
+        <f>$C$3*A2+$D$3</f>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2-A1</f>
-        <v>1.4999999999999991</v>
+        <v>15.519242857142856</v>
       </c>
       <c r="B3">
         <f>B2-B1</f>
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C3">
         <f>B3/A3</f>
-        <v>140.00000000000009</v>
+        <v>13.918204772508233</v>
       </c>
       <c r="D3">
-        <f>C3*A1-B1</f>
-        <v>-1093.0000000000007</v>
+        <f>B1-C3*A1</f>
+        <v>-77.427433407557629</v>
       </c>
     </row>
   </sheetData>
